--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -311,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: 2.16.756.5.30.1.1.11.xyz (use: OFFICIAL)</t>
+    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.xyz (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.xyz (use: official)</t>
+    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.xyz (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -27,16 +27,10 @@
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-laboratory-serology-vs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.xyz (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +99,7 @@
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[true]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Concept</t>
@@ -323,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,15 +427,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -449,14 +443,6 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -478,122 +464,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-laboratory-serology-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>22313-1</t>
   </si>
   <si>
-    <t>Hepatitis A virus IgG Ab [Units/volume] in SerumActive</t>
+    <t>Hepatitis A virus IgG Ab [Units/volume] in Serum</t>
   </si>
   <si>
     <t>16935-9</t>
